--- a/hsim-experiment/harmonic_similarity_split/harmonic_similarity_matches_256.xlsx
+++ b/hsim-experiment/harmonic_similarity_split/harmonic_similarity_matches_256.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,45 +436,50 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>similarity_range</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>track_1</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>track_2</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>sim_val</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_1</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_2</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_1</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_2</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>link_track_1</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>link_track_2</t>
         </is>
@@ -483,646 +488,656 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_149</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_171</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>0.1001011122345804</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>[['E:7', 'A:min', 'A:min']]</t>
-        </is>
+          <t>schubert-winterreise_113</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>isophonics_183</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>0.1483870967741935</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[['C#:7', 'F#:min', 'F#:min']]</t>
+          <t>[['F:maj', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[(13.42, 17.82)]</t>
+          <t>[['D', 'A:7', 'D']]</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>[(4.74, 8.62)]</t>
+          <t>[('0:00:41.700000', '0:00:57.940000')]</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+          <t>[('0:01:09.520470', '0:01:14.942329')]</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>isophonics_183</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>0.1847507331378299</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>[['D', 'A:7', 'D']]</t>
-        </is>
+          <t>schubert-winterreise_75</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_211</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0.3736263736263736</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[['A:maj/E', 'E:7', 'A:maj']]</t>
+          <t>[['C', 'F:min/C', 'C', 'F:min', 'C', 'F:min']]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[(69.52047, 74.942329)]</t>
+          <t>[['A:maj', 'D:min', 'A:maj', 'D:min', 'A:maj', 'D:min']]</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>[(20.56, 23.94)]</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr"/>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
-        </is>
-      </c>
+          <t>[('0:00:47.060000', '0:00:59.980000')]</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>[('0:00:00.240000', '0:00:07.820000')]</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_214</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_31</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>1</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>[['G:maj', 'D:maj', 'G:7', 'C:maj', 'G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj'], ['B:7', 'E:min', 'D:7', 'G:maj', 'B:maj/D#', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
-        </is>
+          <t>schubert-winterreise_148</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_157</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0.2318840579710145</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[['G:maj', 'D:maj', 'G:7', 'C:maj', 'G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj'], ['B:7', 'E:min', 'D:7', 'G:maj', 'B:maj/D#', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
+          <t>[['G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[(0.62, 26.6), (70.16, 96.1)]</t>
+          <t>[['F:maj/A', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>[(1.82, 20.52), (55.14, 75.9)]</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr"/>
+          <t>[('0:00:08.080000', '0:00:19.060000')]</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>[('0:00:16.200000', '0:00:18.460000')]</t>
+        </is>
+      </c>
       <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_160</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_151</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>0.3833333333333333</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>[['D:maj', 'G:maj', 'D:maj/F#']]</t>
-        </is>
+          <t>schubert-winterreise_11</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>isophonics_127</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0.1369047619047619</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[['C:maj/G', 'F:maj', 'C:maj/G']]</t>
+          <t>[['C:maj', 'F:maj', 'C:maj/E']]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[(80.42, 84.64)]</t>
+          <t>[['D', 'G', 'D']]</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>[(117.54, 121.8)]</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr"/>
+          <t>[('0:01:09.860000', '0:01:13.740000')]</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>[('0:00:01.014823', '0:00:12.241493')]</t>
+        </is>
+      </c>
       <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>isophonics_283</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>isophonics_147</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>0.2009803921568628</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>[['C', 'D', 'G', 'G'], ['D', 'G', 'G', 'C']]</t>
-        </is>
+          <t>schubert-winterreise_29</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_5</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0.1712473572938689</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[['A', 'B', 'E', 'E'], ['B', 'E', 'E', 'A']]</t>
+          <t>[['C:hdim7/D#', 'F:(3,5,b7,b9)', 'A#:min']]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[(65.382154, 77.68873), (59.333356, 68.841927)]</t>
+          <t>[['B:hdim7/D', 'E:(3,5,b7,b9)', 'A:min']]</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>[(12.971, 23.861), (14.033, 28.278)]</t>
+          <t>[('0:00:18.900000', '0:00:23.840000')]</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>spotify:track:3tGhRLgcCP6SIZU3tbGl7l</t>
+          <t>[('0:00:53.480000', '0:00:57.460000')]</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_110</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_179</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>0.2153846153846154</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>[['C:maj/G', 'G:7', 'C:maj/G'], ['B:min', 'F#:7/A#', 'B:min']]</t>
-        </is>
+          <t>schubert-winterreise_210</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_166</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>0.2701149425287356</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[['D#:maj/A#', 'A#:7', 'D#:maj/A#'], ['D:min/A', 'A:7', 'D:min']]</t>
+          <t>[['G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G']]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[(92.18, 97.74), (37.36, 44.66)]</t>
+          <t>[['D:min', 'A:maj', 'D:min', 'A:maj', 'D:min', 'A:maj']]</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>[(97.12, 104.1), (131.2, 136.34)]</t>
+          <t>[('0:00:23.800000', '0:00:54.300000')]</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+          <t>[('0:00:08.180000', '0:00:21.140000')]</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>isophonics_123</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_126</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>0.2392241379310345</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>[['E', 'A', 'E']]</t>
-        </is>
+          <t>schubert-winterreise_6</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_146</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>1</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[['D:maj/F#', 'G:maj', 'D:maj']]</t>
+          <t>[['B:min', 'B:7', 'E:maj/B', 'E:min/B', 'B:maj', 'B:min', 'F#:maj', 'B:min', 'B:7', 'E:min/B', 'F#:7/B', 'B:min', 'E:min/B', 'B:min', 'D:maj/A', 'E:min/G', 'D:maj/F#', 'A:7', 'D:maj', 'B:min', 'B:7/A', 'E:maj/G#', 'A:(3,5,b7,b9)/G', 'D:maj/F#', 'F#:(3,5,b7,b9)/E', 'G:(3,5)', 'B:min/F#', 'F#:7', 'G:(3,5)', 'B:min/F#', 'F#:7', 'B:min', 'B:7', 'E:maj', 'E:min', 'B:maj', 'B:min/B', 'F#:maj', 'B:min']]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[(8.413696, 11.072593)]</t>
+          <t>[['B:min', 'B:7', 'E:maj/B', 'E:min/B', 'B:maj', 'B:min', 'F#:maj', 'B:min', 'B:7', 'E:min/B', 'F#:7/B', 'B:min', 'E:min/B', 'B:min', 'D:maj/A', 'E:min/G', 'D:maj/F#', 'A:7', 'D:maj', 'B:min', 'B:7/A', 'E:maj/G#', 'A:(3,5,b7,b9)/G', 'D:maj/F#', 'F#:(3,5,b7,b9)/E', 'G:(3,5)', 'B:min/F#', 'F#:7', 'G:(3,5)', 'B:min/F#', 'F#:7', 'B:min', 'B:7', 'E:maj', 'E:min', 'B:maj', 'B:min/B', 'F#:maj', 'B:min']]</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>[(58.08, 65.66)]</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr"/>
-      <c r="I8" t="inlineStr"/>
+          <t>[('0:00:01.900000', '0:01:41.900000')]</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>[('0:00:00.280000', '0:01:43.400000')]</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_9</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_64</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>0.1334681496461072</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>[['F:min', 'C:7', 'F:min', 'F:min']]</t>
-        </is>
+          <t>isophonics_298</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>isophonics_295</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>0.4583333333333333</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:7', 'D:min', 'D:min']]</t>
+          <t>[['G', 'C', 'G']]</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[(4.86, 9.64)]</t>
+          <t>[['C/3', 'F', 'C/3']]</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>[(9.74, 27.08)]</t>
+          <t>[('0:00:00.344657', '0:00:11.337709')]</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
+          <t>[('0:01:16.585782', '0:01:18.064810')]</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>jaah_28</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>jaah_65</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>0.1089271089271089</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>[['Eb:min7', 'Ab:7', 'Db:maj6', 'Ab:7']]</t>
-        </is>
+          <t>isophonics_167</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>isophonics_232</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>0.3786549707602339</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[['Bb:min7', 'Eb:7', 'Ab:maj6', 'Eb:7']]</t>
+          <t>[['F', 'G', 'C', 'G', 'C', 'G', 'C']]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[(3.2, 8.21)]</t>
+          <t>[['G', 'C', 'F', 'C', 'F', 'C', 'F']]</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>[(8.04, 10.5)]</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr"/>
+          <t>[('0:01:10.283174', '0:01:25.213605')]</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>[('0:00:14.391133', '0:00:27.510408')]</t>
+        </is>
+      </c>
       <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>isophonics_170</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>isophonics_244</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>0.1514726507713885</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>[['E:min', 'A', 'D', 'D']]</t>
-        </is>
+          <t>schubert-winterreise_83</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_73</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>0.5142857142857142</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[['G:min', 'C', 'F', 'F']]</t>
+          <t>[['D:maj/A', 'G:maj', 'D:maj/A']]</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[(47.993, 52.587959)]</t>
+          <t>[['G:maj/B', 'C:maj', 'G:maj/D']]</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>[(54.681315, 62.15814)]</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr"/>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>spotify:track:3BQHpFgAp4l80e1XslIjNI</t>
-        </is>
-      </c>
+          <t>[('0:02:12.300000', '0:02:16.560000')]</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>[('0:01:05.200000', '0:01:07.500000')]</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>jaah_43</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>jaah_53</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>0.04118873826903024</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>[['Bb:7', 'Eb', 'Eb']]</t>
-        </is>
+          <t>schubert-winterreise_186</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>isophonics_109</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>0.6</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[['D:7', 'G', 'G']]</t>
+          <t>[['F:maj', 'A#:maj', 'F:maj']]</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[(5.44, 10.01)]</t>
+          <t>[['A', 'D', 'A']]</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>[(41.7, 45.42)]</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr"/>
-      <c r="I12" t="inlineStr"/>
+          <t>[('0:01:58.440000', '0:02:01.680000')]</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>[('0:01:34.925000', '0:01:40.821000')]</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_64</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>isophonics_233</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>0.07900136798905609</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>[['D:min', 'A:7/E', 'D:min']]</t>
-        </is>
+          <t>schubert-winterreise_187</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_66</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>1</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:7', 'D:min']]</t>
+          <t>[['C:min', 'C:min', 'D:hdim7/C', 'C:min', 'C:min/G', 'G:7', 'C:min', 'C:min', 'D:hdim7/C', 'C:min', 'C:min/G', 'G:7', 'C:min', 'A#/D', 'A#:7', 'D#', 'C:min', 'F:7/C', 'A#', 'D#/G', 'A#:7/F', 'D#/G', 'A#:7', 'D#', 'D:dim7/D#', 'D#:7', 'G#', 'F:min', 'A#:7/F', 'D#', 'G#/C', 'D#:7/A#', 'G#/C', 'D#', 'G#', 'D:hdim7/F', 'C:min/D#', 'D:hdim7/F', 'C:min/D#', 'D#/G', 'C:min/G', 'G:7', 'C:min', 'D:hdim7/F', 'C:min/D#', 'D#/G', 'C:min/G', 'G:7', 'C:min', 'B:dim7/C', 'C:min', 'F:min', 'C:min/G', 'F:min7/G#', 'C:min/G', 'G:7', 'C:min', 'C:min', 'D:hdim7/C', 'C:min']]</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[(0.82, 6.76)]</t>
+          <t>[['C:min', 'C:min', 'D:hdim7/C', 'C:min', 'C:min/G', 'G:7', 'C:min', 'C:min', 'D:hdim7/C', 'C:min', 'C:min/G', 'G:7', 'C:min', 'A#/D', 'A#:7', 'D#', 'C:min', 'F:7/C', 'A#', 'D#/G', 'A#:7/F', 'D#/G', 'A#:7', 'D#', 'D:dim7/D#', 'D#:7', 'G#', 'F:min', 'A#:7/F', 'D#', 'G#/C', 'D#:7/A#', 'G#/C', 'D#', 'G#', 'D:hdim7/F', 'C:min/D#', 'D:hdim7/F', 'C:min/D#', 'D#/G', 'C:min/G', 'G:7', 'C:min', 'D:hdim7/F', 'C:min/D#', 'D#/G', 'C:min/G', 'G:7', 'C:min', 'B:dim7/C', 'C:min', 'F:min', 'C:min/G', 'F:min7/G#', 'C:min/G', 'G:7', 'C:min', 'C:min', 'D:hdim7/C', 'C:min']]</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>[(36.711, 39.787)]</t>
+          <t>[('0:00:16.380000', '0:01:35.260000')]</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+          <t>[('0:00:14.760000', '0:01:42.460000')]</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_173</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_31</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>0.2318840579710145</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>[['G:maj/B', 'D:7', 'G:maj']]</t>
-        </is>
+          <t>schubert-winterreise_27</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_56</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>0.7142857142857143</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[['G:maj', 'D:7', 'G:maj']]</t>
+          <t>[['D#:maj/A#', 'A#:(3,5,b7,b9)', 'D#:maj']]</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[(17.16, 19.52)]</t>
+          <t>[['A#:maj', 'F:(3,5,b7,b9)', 'A#:maj']]</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>[(7.9, 16.08)]</t>
+          <t>[('0:00:58.780000', '0:01:01.540000')]</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+          <t>[('0:00:21.880000', '0:00:24.860000')]</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>isophonics_252</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_21</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>0.168956043956044</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>[['C:min', 'G:maj', 'C:min']]</t>
-        </is>
+          <t>schubert-winterreise_31</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_148</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>1</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[['D#:min', 'A#:maj', 'D#:min']]</t>
+          <t>[['G:maj', 'D:maj', 'G:7', 'C:maj', 'G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj'], ['B:7', 'E:min', 'D:7', 'G:maj', 'B:maj/D#', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[(7.523, 10.397)]</t>
+          <t>[['G:maj', 'D:maj', 'G:7', 'C:maj', 'G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj'], ['B:7', 'E:min', 'D:7', 'G:maj', 'B:maj/D#', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>[(2.66, 7.98)]</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr"/>
+          <t>[('0:00:01.820000', '0:00:20.520000'), ('0:00:55.140000', '0:01:15.900000')]</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>[('0:00:00.260000', '0:00:24.940000'), ('0:01:05.060000', '0:01:28.500000')]</t>
+        </is>
+      </c>
       <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>isophonics_200</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_163</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>0.1652173913043478</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>[['A', 'D', 'A']]</t>
-        </is>
+          <t>schubert-winterreise_40</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_196</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>0.7083333333333333</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[['F:maj', 'A#:maj', 'F:maj']]</t>
+          <t>[['A:7', 'D:maj', 'A:7', 'D:maj', 'A:7', 'D:maj']]</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[(2.408196, 13.878853)]</t>
+          <t>[['D:7', 'G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>[(111.92, 115.36)]</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr"/>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_143</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_122</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>1</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>[['B:min', 'B:7', 'E:maj/B', 'E:min/B', 'B:maj', 'B:min', 'F#:maj', 'B:min', 'B:7', 'E:min/B', 'F#:7/B', 'B:min', 'E:min/B', 'B:min', 'D:maj/A', 'E:min/G', 'D:maj/F#', 'A:7', 'D:maj', 'B:min', 'B:7/A', 'E:maj/G#', 'A:(3,5,b7,b9)/G', 'D:maj/F#', 'F#:(3,5,b7,b9)/E', 'G:(3,5)', 'B:min/F#', 'F#:7', 'G:(3,5)', 'B:min/F#', 'F#:7', 'B:min', 'B:7', 'E:maj', 'E:min', 'B:maj', 'B:min/B', 'F#:maj', 'B:min']]</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>[['B:min', 'B:7', 'E:maj/B', 'E:min/B', 'B:maj', 'B:min', 'F#:maj', 'B:min', 'B:7', 'E:min/B', 'F#:7/B', 'B:min', 'E:min/B', 'B:min', 'D:maj/A', 'E:min/G', 'D:maj/F#', 'A:7', 'D:maj', 'B:min', 'B:7/A', 'E:maj/G#', 'A:(3,5,b7,b9)/G', 'D:maj/F#', 'F#:(3,5,b7,b9)/E', 'G:(3,5)', 'B:min/F#', 'F#:7', 'G:(3,5)', 'B:min/F#', 'F#:7', 'B:min', 'B:7', 'E:maj', 'E:min', 'B:maj', 'B:min/B', 'F#:maj', 'B:min']]</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>[(1.66, 97.0)]</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>[(0.28, 102.52)]</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
+          <t>[('0:00:19.500000', '0:00:49.860000')]</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>[('0:00:35.460000', '0:00:50.440000')]</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
